--- a/src/main/resources/resource/EquipResource.xlsx
+++ b/src/main/resources/resource/EquipResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F337EDB-F51A-45B0-88CD-F63E0C3B0A97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FBB52F-B39C-410F-9C3A-26234076FC8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="1080" windowWidth="14220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="510" windowWidth="14220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="109">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,21 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_10</t>
-  </si>
-  <si>
-    <t>3_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,6 +440,18 @@
   </si>
   <si>
     <t>3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -890,13 +887,13 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
         <v>92</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>96</v>
-      </c>
-      <c r="H4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -916,10 +913,10 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -942,10 +939,10 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -968,10 +965,10 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
@@ -994,7 +991,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
@@ -1020,7 +1017,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
@@ -1046,7 +1043,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -1072,7 +1069,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -1098,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1124,10 +1121,10 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
         <v>33</v>
@@ -1150,10 +1147,10 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
         <v>33</v>
@@ -1176,10 +1173,10 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
         <v>34</v>
@@ -1202,7 +1199,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
         <v>29</v>
@@ -1228,7 +1225,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -1254,7 +1251,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
@@ -1280,7 +1277,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
@@ -1300,19 +1297,19 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1326,16 +1323,16 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H21" t="s">
         <v>33</v>
@@ -1352,16 +1349,16 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
         <v>33</v>
@@ -1378,16 +1375,16 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H23" t="s">
         <v>34</v>
@@ -1404,13 +1401,13 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1430,13 +1427,13 @@
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -1456,13 +1453,13 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -1482,13 +1479,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -1508,19 +1505,19 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1534,16 +1531,16 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H29" t="s">
         <v>33</v>
@@ -1560,16 +1557,16 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H30" t="s">
         <v>33</v>
@@ -1586,16 +1583,16 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H31" t="s">
         <v>34</v>
@@ -1612,13 +1609,13 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -1638,13 +1635,13 @@
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
         <v>30</v>
@@ -1664,13 +1661,13 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
         <v>30</v>
@@ -1690,13 +1687,13 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
         <v>85</v>
@@ -1716,19 +1713,19 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s">
         <v>91</v>
       </c>
-      <c r="F36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" t="s">
-        <v>95</v>
-      </c>
       <c r="H36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1742,16 +1739,16 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H37" t="s">
         <v>33</v>
@@ -1768,16 +1765,16 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H38" t="s">
         <v>33</v>
@@ -1794,16 +1791,16 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H39" t="s">
         <v>34</v>
@@ -1820,13 +1817,13 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
         <v>84</v>
@@ -1846,13 +1843,13 @@
         <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
         <v>83</v>
@@ -1872,13 +1869,13 @@
         <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
         <v>83</v>
@@ -1898,13 +1895,13 @@
         <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
         <v>85</v>
@@ -1924,19 +1921,19 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H44" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1950,16 +1947,16 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H45" t="s">
         <v>33</v>
@@ -1976,16 +1973,16 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H46" t="s">
         <v>33</v>
@@ -2002,16 +1999,16 @@
         <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H47" t="s">
         <v>34</v>
@@ -2028,13 +2025,13 @@
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s">
         <v>84</v>
@@ -2054,13 +2051,13 @@
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
         <v>83</v>
@@ -2080,13 +2077,13 @@
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s">
         <v>83</v>
@@ -2106,13 +2103,13 @@
         <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s">
         <v>85</v>

--- a/src/main/resources/resource/EquipResource.xlsx
+++ b/src/main/resources/resource/EquipResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FBB52F-B39C-410F-9C3A-26234076FC8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EEBA28-EA45-42BC-A845-1B21F826B439}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="510" windowWidth="14220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="111">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>升阶条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>streConditions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,14 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11_1_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11_2_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAGIC_ATTACK,5;INTELLIGENCE,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,9 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11_2_10</t>
-  </si>
-  <si>
     <t>3_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,15 +428,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_20</t>
+    <t>11_1_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11_2_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级后对应的道具表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -788,1334 +797,1415 @@
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="27.75" customWidth="1"/>
-    <col min="8" max="8" width="35.125" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="H5">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="H7">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="H11">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="H12">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="H13">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="H14">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="H15">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>52</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="H19">
+        <v>53</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
         <v>93</v>
       </c>
-      <c r="H20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>31</v>
       </c>
       <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="H22">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="H23">
+        <v>57</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="H24">
+        <v>58</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <v>59</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H26">
+        <v>60</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="H27">
+        <v>61</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G31" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="I36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G38" t="s">
-        <v>102</v>
-      </c>
-      <c r="H38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G39" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
-      </c>
-      <c r="H43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G44" t="s">
-        <v>95</v>
-      </c>
-      <c r="H44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="I44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
         <v>103</v>
       </c>
       <c r="G46" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F47" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
-      </c>
-      <c r="H47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="I47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="I48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
-      </c>
-      <c r="H49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
-      </c>
-      <c r="H51" t="s">
-        <v>33</v>
+        <v>84</v>
+      </c>
+      <c r="I51" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/EquipResource.xlsx
+++ b/src/main/resources/resource/EquipResource.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EEBA28-EA45-42BC-A845-1B21F826B439}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775D0715-2C26-407D-8EF4-B86529FD9EAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="114">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,18 @@
   </si>
   <si>
     <t>upgradeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备最大强化等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -801,7 +813,7 @@
     <col min="9" max="9" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -829,8 +841,11 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -858,8 +873,11 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -887,8 +905,11 @@
       <c r="I3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>14</v>
       </c>
@@ -916,8 +937,11 @@
       <c r="I4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>15</v>
       </c>
@@ -945,8 +969,11 @@
       <c r="I5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
@@ -974,8 +1001,11 @@
       <c r="I6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>17</v>
       </c>
@@ -1003,8 +1033,11 @@
       <c r="I7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>18</v>
       </c>
@@ -1032,8 +1065,11 @@
       <c r="I8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>19</v>
       </c>
@@ -1061,8 +1097,11 @@
       <c r="I9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
@@ -1090,8 +1129,11 @@
       <c r="I10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>21</v>
       </c>
@@ -1119,8 +1161,11 @@
       <c r="I11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>22</v>
       </c>
@@ -1148,8 +1193,11 @@
       <c r="I12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>23</v>
       </c>
@@ -1177,8 +1225,11 @@
       <c r="I13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>24</v>
       </c>
@@ -1206,8 +1257,11 @@
       <c r="I14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>25</v>
       </c>
@@ -1235,8 +1289,11 @@
       <c r="I15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>26</v>
       </c>
@@ -1264,8 +1321,11 @@
       <c r="I16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>27</v>
       </c>
@@ -1293,8 +1353,11 @@
       <c r="I17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -1322,8 +1385,11 @@
       <c r="I18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>29</v>
       </c>
@@ -1351,8 +1417,11 @@
       <c r="I19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>30</v>
       </c>
@@ -1380,8 +1449,11 @@
       <c r="I20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>31</v>
       </c>
@@ -1409,8 +1481,11 @@
       <c r="I21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>32</v>
       </c>
@@ -1438,8 +1513,11 @@
       <c r="I22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>33</v>
       </c>
@@ -1467,8 +1545,11 @@
       <c r="I23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>34</v>
       </c>
@@ -1496,8 +1577,11 @@
       <c r="I24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>35</v>
       </c>
@@ -1525,8 +1609,11 @@
       <c r="I25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>36</v>
       </c>
@@ -1554,8 +1641,11 @@
       <c r="I26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>37</v>
       </c>
@@ -1583,8 +1673,11 @@
       <c r="I27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>38</v>
       </c>
@@ -1609,8 +1702,11 @@
       <c r="I28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>39</v>
       </c>
@@ -1635,8 +1731,11 @@
       <c r="I29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>40</v>
       </c>
@@ -1661,8 +1760,11 @@
       <c r="I30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>41</v>
       </c>
@@ -1687,8 +1789,11 @@
       <c r="I31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>42</v>
       </c>
@@ -1713,8 +1818,11 @@
       <c r="I32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>43</v>
       </c>
@@ -1739,8 +1847,11 @@
       <c r="I33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>44</v>
       </c>
@@ -1765,8 +1876,11 @@
       <c r="I34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>45</v>
       </c>
@@ -1791,8 +1905,11 @@
       <c r="I35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>46</v>
       </c>
@@ -1817,8 +1934,11 @@
       <c r="I36" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>47</v>
       </c>
@@ -1843,8 +1963,11 @@
       <c r="I37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>48</v>
       </c>
@@ -1869,8 +1992,11 @@
       <c r="I38" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>49</v>
       </c>
@@ -1895,8 +2021,11 @@
       <c r="I39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>50</v>
       </c>
@@ -1921,8 +2050,11 @@
       <c r="I40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>51</v>
       </c>
@@ -1947,8 +2079,11 @@
       <c r="I41" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>52</v>
       </c>
@@ -1973,8 +2108,11 @@
       <c r="I42" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>53</v>
       </c>
@@ -1999,8 +2137,11 @@
       <c r="I43" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>54</v>
       </c>
@@ -2025,8 +2166,11 @@
       <c r="I44" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>55</v>
       </c>
@@ -2051,8 +2195,11 @@
       <c r="I45" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>56</v>
       </c>
@@ -2077,8 +2224,11 @@
       <c r="I46" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>57</v>
       </c>
@@ -2103,8 +2253,11 @@
       <c r="I47" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>58</v>
       </c>
@@ -2129,8 +2282,11 @@
       <c r="I48" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>59</v>
       </c>
@@ -2155,8 +2311,11 @@
       <c r="I49" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>60</v>
       </c>
@@ -2181,8 +2340,11 @@
       <c r="I50" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>61</v>
       </c>
@@ -2206,6 +2368,9 @@
       </c>
       <c r="I51" t="s">
         <v>32</v>
+      </c>
+      <c r="J51">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/EquipResource.xlsx
+++ b/src/main/resources/resource/EquipResource.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775D0715-2C26-407D-8EF4-B86529FD9EAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8D0925-ED47-487A-A13D-E2AE8895662B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="169">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,10 +408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAX_MP,100;MAGIC_DEFENSE,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAX_MP,200;MAGIC_DEFENSE,15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,6 +469,230 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗大刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士戒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师戒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客戒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11_3_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK_PERCENTAGE,5;PHYSICAL_ATTACK,20;POWER,5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGIC_ATTACK,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_HP,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_MP,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_HP,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_MP,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGIC_ATTACK,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_HP_PERCENTAGE,5;MAX_HP,300;PHYSICAL_DEFENSE,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_MP_PERCENTAGE,5;MAX_MP,300;MAGIC_DEFENSE,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_MP_PERCENTAGE,5;MAX_MP,300;ATTACK_SPEED_PERCENTAGE,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_MP,200;ATTACK_SPEED,5,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTELLIGENCE,5;MAX_MP,300;MAX_MP_PERCENTAGE,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_HP,300;POWER,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGIC_ATTACK,20;INTELLIGENCE,10;MAGIC_ATTACK_PERCENTAGE,5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_HP,300;PHYSICAL_DEFENSE,20;MAGIC_DEFENSE_PERCENTAGE,5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_MP,300;MAGIC_DEFENSE,20;MAGIC_DEFENSE_PERCENTAGE,5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_HP,300;PHYSICAL_DEFENSE,20;PHYSICAL_DEFENSE_PERCENTAGE,5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_HP_PERCENTAGE,5;MAX_HP,300;PHYSICAL_DEFENSE,20;PHYSICAL_DEFENSE_PERCENTAGE,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_MP,300;ATTACK_SPEED,10;ATTACK_SPEED_PERCENTAGE,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTELLIGENCE,15;MAX_MP,300;MAX_MP_PERCENTAGE,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_HP,300;POWER,15;MAX_HP_PERCENTAGE,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICAL_ATTACK,20;ATTACK_SPEED,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_HP,300;PHYSICAL_DEFENSE,20;ATTACK_SPEED_PERCENTAGE,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTELLIGENCE,10;MAX_MP,300;MAGIC_DEFENSE_PERCENTAGE,5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_HP,200;POWER,10;MAX_HP_PERCENTAGE,5;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,18 +1018,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="27.75" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="56.25" customWidth="1"/>
+    <col min="8" max="8" width="38.625" customWidth="1"/>
     <col min="9" max="9" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -830,19 +1050,19 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -868,13 +1088,13 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -900,13 +1120,13 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -926,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
         <v>89</v>
@@ -958,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
         <v>95</v>
@@ -990,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" t="s">
         <v>95</v>
@@ -1022,7 +1242,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
         <v>96</v>
@@ -1054,7 +1274,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -1086,7 +1306,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -1118,7 +1338,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -1150,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
         <v>85</v>
@@ -1182,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
         <v>87</v>
@@ -1214,7 +1434,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
         <v>95</v>
@@ -1246,7 +1466,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" t="s">
         <v>95</v>
@@ -1278,7 +1498,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
         <v>96</v>
@@ -1310,7 +1530,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
         <v>28</v>
@@ -1342,7 +1562,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -1374,7 +1594,7 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
         <v>29</v>
@@ -1406,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
         <v>85</v>
@@ -1432,13 +1652,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" t="s">
         <v>90</v>
@@ -1464,13 +1684,13 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
         <v>95</v>
@@ -1496,13 +1716,13 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
         <v>95</v>
@@ -1528,13 +1748,13 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
         <v>96</v>
@@ -1560,13 +1780,13 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -1592,13 +1812,13 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1624,13 +1844,13 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1656,13 +1876,13 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
         <v>85</v>
@@ -1688,19 +1908,22 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
         <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
         <v>91</v>
       </c>
+      <c r="H28">
+        <v>62</v>
+      </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="J28">
         <v>9</v>
@@ -1717,19 +1940,22 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
         <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="H29">
+        <v>63</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J29">
         <v>9</v>
@@ -1746,19 +1972,22 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
         <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="H30">
+        <v>64</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J30">
         <v>9</v>
@@ -1775,19 +2004,22 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
         <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
       </c>
+      <c r="H31">
+        <v>65</v>
+      </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="J31">
         <v>9</v>
@@ -1804,19 +2036,22 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
         <v>86</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>154</v>
+      </c>
+      <c r="H32">
+        <v>66</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="J32">
         <v>9</v>
@@ -1833,19 +2068,22 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
         <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>82</v>
+      </c>
+      <c r="H33">
+        <v>67</v>
       </c>
       <c r="I33" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J33">
         <v>9</v>
@@ -1862,19 +2100,22 @@
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
         <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>82</v>
+      </c>
+      <c r="H34">
+        <v>68</v>
       </c>
       <c r="I34" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J34">
         <v>9</v>
@@ -1891,19 +2132,22 @@
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
         <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G35" t="s">
         <v>84</v>
       </c>
+      <c r="H35">
+        <v>69</v>
+      </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J35">
         <v>9</v>
@@ -1920,19 +2164,22 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
         <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G36" t="s">
         <v>88</v>
       </c>
+      <c r="H36">
+        <v>70</v>
+      </c>
       <c r="I36" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="J36">
         <v>9</v>
@@ -1949,19 +2196,22 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
         <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G37" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="H37">
+        <v>71</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J37">
         <v>9</v>
@@ -1978,19 +2228,22 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
         <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="H38">
+        <v>72</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J38">
         <v>9</v>
@@ -2007,19 +2260,22 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
         <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="H39">
+        <v>73</v>
       </c>
       <c r="I39" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="J39">
         <v>9</v>
@@ -2036,19 +2292,22 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
         <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G40" t="s">
         <v>83</v>
       </c>
+      <c r="H40">
+        <v>74</v>
+      </c>
       <c r="I40" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="J40">
         <v>9</v>
@@ -2065,19 +2324,22 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
         <v>86</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G41" t="s">
         <v>82</v>
       </c>
+      <c r="H41">
+        <v>75</v>
+      </c>
       <c r="I41" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J41">
         <v>9</v>
@@ -2094,19 +2356,22 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G42" t="s">
         <v>82</v>
       </c>
+      <c r="H42">
+        <v>76</v>
+      </c>
       <c r="I42" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J42">
         <v>9</v>
@@ -2123,19 +2388,22 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
         <v>86</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G43" t="s">
         <v>84</v>
       </c>
+      <c r="H43">
+        <v>77</v>
+      </c>
       <c r="I43" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J43">
         <v>9</v>
@@ -2152,19 +2420,22 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
         <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G44" t="s">
         <v>92</v>
       </c>
+      <c r="H44">
+        <v>78</v>
+      </c>
       <c r="I44" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="J44">
         <v>9</v>
@@ -2181,19 +2452,22 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
         <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="H45">
+        <v>79</v>
       </c>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J45">
         <v>9</v>
@@ -2210,19 +2484,22 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G46" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="H46">
+        <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J46">
         <v>9</v>
@@ -2239,19 +2516,22 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
         <v>86</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="H47">
+        <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="J47">
         <v>9</v>
@@ -2268,19 +2548,22 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G48" t="s">
         <v>83</v>
       </c>
+      <c r="H48">
+        <v>82</v>
+      </c>
       <c r="I48" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="J48">
         <v>9</v>
@@ -2297,19 +2580,22 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
         <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G49" t="s">
         <v>82</v>
       </c>
+      <c r="H49">
+        <v>83</v>
+      </c>
       <c r="I49" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J49">
         <v>9</v>
@@ -2326,19 +2612,22 @@
         <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
         <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G50" t="s">
         <v>82</v>
       </c>
+      <c r="H50">
+        <v>84</v>
+      </c>
       <c r="I50" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J50">
         <v>9</v>
@@ -2355,22 +2644,649 @@
         <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
         <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G51" t="s">
         <v>84</v>
       </c>
+      <c r="H51">
+        <v>85</v>
+      </c>
       <c r="I51" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="J51">
         <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" t="s">
+        <v>142</v>
+      </c>
+      <c r="I52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" t="s">
+        <v>161</v>
+      </c>
+      <c r="I54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" t="s">
+        <v>152</v>
+      </c>
+      <c r="I55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" t="s">
+        <v>140</v>
+      </c>
+      <c r="F56" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" t="s">
+        <v>153</v>
+      </c>
+      <c r="I56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" t="s">
+        <v>141</v>
+      </c>
+      <c r="G57" t="s">
+        <v>155</v>
+      </c>
+      <c r="I57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58" t="s">
+        <v>155</v>
+      </c>
+      <c r="I58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" t="s">
+        <v>141</v>
+      </c>
+      <c r="G59" t="s">
+        <v>156</v>
+      </c>
+      <c r="I59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60" t="s">
+        <v>157</v>
+      </c>
+      <c r="I60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" t="s">
+        <v>141</v>
+      </c>
+      <c r="G61" t="s">
+        <v>160</v>
+      </c>
+      <c r="I61" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" t="s">
+        <v>141</v>
+      </c>
+      <c r="G62" t="s">
+        <v>158</v>
+      </c>
+      <c r="I62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" t="s">
+        <v>141</v>
+      </c>
+      <c r="G63" t="s">
+        <v>159</v>
+      </c>
+      <c r="I63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" t="s">
+        <v>141</v>
+      </c>
+      <c r="G64" t="s">
+        <v>162</v>
+      </c>
+      <c r="I64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" t="s">
+        <v>141</v>
+      </c>
+      <c r="G65" t="s">
+        <v>163</v>
+      </c>
+      <c r="I65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" t="s">
+        <v>141</v>
+      </c>
+      <c r="G66" t="s">
+        <v>163</v>
+      </c>
+      <c r="I66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67" t="s">
+        <v>141</v>
+      </c>
+      <c r="G67" t="s">
+        <v>164</v>
+      </c>
+      <c r="I67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" t="s">
+        <v>141</v>
+      </c>
+      <c r="G68" t="s">
+        <v>165</v>
+      </c>
+      <c r="I68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" t="s">
+        <v>140</v>
+      </c>
+      <c r="F69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G69" t="s">
+        <v>166</v>
+      </c>
+      <c r="I69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" t="s">
+        <v>140</v>
+      </c>
+      <c r="F70" t="s">
+        <v>141</v>
+      </c>
+      <c r="G70" t="s">
+        <v>166</v>
+      </c>
+      <c r="I70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
+        <v>141</v>
+      </c>
+      <c r="G71" t="s">
+        <v>159</v>
+      </c>
+      <c r="I71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
+        <v>141</v>
+      </c>
+      <c r="G72" t="s">
+        <v>162</v>
+      </c>
+      <c r="I72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G73" t="s">
+        <v>167</v>
+      </c>
+      <c r="I73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
+        <v>141</v>
+      </c>
+      <c r="G74" t="s">
+        <v>167</v>
+      </c>
+      <c r="I74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" t="s">
+        <v>168</v>
+      </c>
+      <c r="I75" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/EquipResource.xlsx
+++ b/src/main/resources/resource/EquipResource.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8D0925-ED47-487A-A13D-E2AE8895662B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8B1DE9-F803-488F-A33B-07266BD4C48B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J120" sqref="J120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2690,6 +2690,9 @@
       <c r="I52" t="s">
         <v>143</v>
       </c>
+      <c r="J52">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -2716,6 +2719,9 @@
       <c r="I53" t="s">
         <v>148</v>
       </c>
+      <c r="J53">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
@@ -2742,6 +2748,9 @@
       <c r="I54" t="s">
         <v>148</v>
       </c>
+      <c r="J54">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -2768,6 +2777,9 @@
       <c r="I55" t="s">
         <v>149</v>
       </c>
+      <c r="J55">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -2794,6 +2806,9 @@
       <c r="I56" t="s">
         <v>149</v>
       </c>
+      <c r="J56">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -2820,6 +2835,9 @@
       <c r="I57" t="s">
         <v>148</v>
       </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -2846,6 +2864,9 @@
       <c r="I58" t="s">
         <v>148</v>
       </c>
+      <c r="J58">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -2872,6 +2893,9 @@
       <c r="I59" t="s">
         <v>148</v>
       </c>
+      <c r="J59">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -2898,6 +2922,9 @@
       <c r="I60" t="s">
         <v>150</v>
       </c>
+      <c r="J60">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -2924,6 +2951,9 @@
       <c r="I61" t="s">
         <v>148</v>
       </c>
+      <c r="J61">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -2950,6 +2980,9 @@
       <c r="I62" t="s">
         <v>148</v>
       </c>
+      <c r="J62">
+        <v>9</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -2976,6 +3009,9 @@
       <c r="I63" t="s">
         <v>149</v>
       </c>
+      <c r="J63">
+        <v>9</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -3002,8 +3038,11 @@
       <c r="I64" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>75</v>
       </c>
@@ -3028,8 +3067,11 @@
       <c r="I65" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>76</v>
       </c>
@@ -3054,8 +3096,11 @@
       <c r="I66" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>77</v>
       </c>
@@ -3080,8 +3125,11 @@
       <c r="I67" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>78</v>
       </c>
@@ -3106,8 +3154,11 @@
       <c r="I68" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>79</v>
       </c>
@@ -3132,8 +3183,11 @@
       <c r="I69" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>80</v>
       </c>
@@ -3158,8 +3212,11 @@
       <c r="I70" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>81</v>
       </c>
@@ -3184,8 +3241,11 @@
       <c r="I71" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>82</v>
       </c>
@@ -3210,8 +3270,11 @@
       <c r="I72" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>83</v>
       </c>
@@ -3236,8 +3299,11 @@
       <c r="I73" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>84</v>
       </c>
@@ -3262,8 +3328,11 @@
       <c r="I74" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>85</v>
       </c>
@@ -3287,6 +3356,9 @@
       </c>
       <c r="I75" t="s">
         <v>148</v>
+      </c>
+      <c r="J75">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
